--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/3_tabla_significancia_d_DM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/3_tabla_significancia_d_DM.xlsx
@@ -401,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,13 +427,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,8 +461,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,8 +490,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -510,8 +519,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -536,8 +548,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,8 +577,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -588,8 +606,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -640,8 +664,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -664,6 +691,9 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
